--- a/Archivos con versiones antiguas/firebase_data_spyMOC.xlsx
+++ b/Archivos con versiones antiguas/firebase_data_spyMOC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E410"/>
+  <dimension ref="A1:E423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7402,11 +7402,232 @@
       <c r="B410" s="2" t="n">
         <v>45791.47916666666</v>
       </c>
-      <c r="C410" t="inlineStr"/>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
       <c r="D410" t="n">
         <v>1</v>
       </c>
-      <c r="E410" t="inlineStr"/>
+      <c r="E410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>45792.47916666666</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>45793.47916666666</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" s="2" t="n">
+        <v>45796.47916666666</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" s="2" t="n">
+        <v>45797.47916666666</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" s="2" t="n">
+        <v>45798.47916666666</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" s="2" t="n">
+        <v>45799.47916666666</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" s="2" t="n">
+        <v>45800.47916666666</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
+      <c r="E417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" s="2" t="n">
+        <v>45804.47916666666</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" s="2" t="n">
+        <v>45805.47916666666</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" s="2" t="n">
+        <v>45806.47916666666</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" s="2" t="n">
+        <v>45807.47916666666</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" s="2" t="n">
+        <v>45810.47916666666</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" s="2" t="n">
+        <v>45811.47916666666</v>
+      </c>
+      <c r="C423" t="inlineStr"/>
+      <c r="D423" t="n">
+        <v>1</v>
+      </c>
+      <c r="E423" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
